--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_225.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_225.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d78034-Reviews-DoubleTree_Club_by_Hilton_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>972</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-DoubleTree-By-Hilton-Santa-Ana-Orange-County-Airport.h866005.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_225.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_225.xlsx
@@ -12426,7 +12426,7 @@
         <v>44134</v>
       </c>
       <c r="B3" t="n">
-        <v>141379</v>
+        <v>172558</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -12501,7 +12501,7 @@
         <v>44134</v>
       </c>
       <c r="B4" t="n">
-        <v>141380</v>
+        <v>172559</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -12562,7 +12562,7 @@
         <v>44134</v>
       </c>
       <c r="B5" t="n">
-        <v>141381</v>
+        <v>172560</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -12708,7 +12708,7 @@
         <v>44134</v>
       </c>
       <c r="B7" t="n">
-        <v>141382</v>
+        <v>172561</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -12779,7 +12779,7 @@
         <v>44134</v>
       </c>
       <c r="B8" t="n">
-        <v>141383</v>
+        <v>172562</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -12854,7 +12854,7 @@
         <v>44134</v>
       </c>
       <c r="B9" t="n">
-        <v>141384</v>
+        <v>172563</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -12925,7 +12925,7 @@
         <v>44134</v>
       </c>
       <c r="B10" t="n">
-        <v>141385</v>
+        <v>172564</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -13000,7 +13000,7 @@
         <v>44134</v>
       </c>
       <c r="B11" t="n">
-        <v>141386</v>
+        <v>172565</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
@@ -13215,7 +13215,7 @@
         <v>44134</v>
       </c>
       <c r="B14" t="n">
-        <v>141387</v>
+        <v>172566</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -13276,7 +13276,7 @@
         <v>44134</v>
       </c>
       <c r="B15" t="n">
-        <v>141388</v>
+        <v>172567</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -13552,7 +13552,7 @@
         <v>44134</v>
       </c>
       <c r="B19" t="n">
-        <v>141389</v>
+        <v>172568</v>
       </c>
       <c r="C19" t="s">
         <v>188</v>
@@ -13678,7 +13678,7 @@
         <v>44134</v>
       </c>
       <c r="B21" t="n">
-        <v>141390</v>
+        <v>172569</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -13739,7 +13739,7 @@
         <v>44134</v>
       </c>
       <c r="B22" t="n">
-        <v>141391</v>
+        <v>172570</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -13806,7 +13806,7 @@
         <v>44134</v>
       </c>
       <c r="B23" t="n">
-        <v>141392</v>
+        <v>172571</v>
       </c>
       <c r="C23" t="s">
         <v>215</v>
@@ -13952,7 +13952,7 @@
         <v>44134</v>
       </c>
       <c r="B25" t="n">
-        <v>141393</v>
+        <v>172572</v>
       </c>
       <c r="C25" t="s">
         <v>228</v>
@@ -14088,7 +14088,7 @@
         <v>44134</v>
       </c>
       <c r="B27" t="n">
-        <v>141394</v>
+        <v>172573</v>
       </c>
       <c r="C27" t="s">
         <v>240</v>
@@ -14368,7 +14368,7 @@
         <v>44134</v>
       </c>
       <c r="B31" t="n">
-        <v>141395</v>
+        <v>172574</v>
       </c>
       <c r="C31" t="s">
         <v>265</v>
@@ -14439,7 +14439,7 @@
         <v>44134</v>
       </c>
       <c r="B32" t="n">
-        <v>141396</v>
+        <v>172575</v>
       </c>
       <c r="C32" t="s">
         <v>271</v>
@@ -14510,7 +14510,7 @@
         <v>44134</v>
       </c>
       <c r="B33" t="n">
-        <v>141397</v>
+        <v>172576</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
@@ -14581,7 +14581,7 @@
         <v>44134</v>
       </c>
       <c r="B34" t="n">
-        <v>141398</v>
+        <v>172577</v>
       </c>
       <c r="C34" t="s">
         <v>284</v>
@@ -14711,7 +14711,7 @@
         <v>44134</v>
       </c>
       <c r="B36" t="n">
-        <v>141399</v>
+        <v>172578</v>
       </c>
       <c r="C36" t="s">
         <v>297</v>
@@ -14786,7 +14786,7 @@
         <v>44134</v>
       </c>
       <c r="B37" t="n">
-        <v>141400</v>
+        <v>172579</v>
       </c>
       <c r="C37" t="s">
         <v>307</v>
@@ -14936,7 +14936,7 @@
         <v>44134</v>
       </c>
       <c r="B39" t="n">
-        <v>141401</v>
+        <v>172580</v>
       </c>
       <c r="C39" t="s">
         <v>323</v>
@@ -15011,7 +15011,7 @@
         <v>44134</v>
       </c>
       <c r="B40" t="n">
-        <v>141402</v>
+        <v>172581</v>
       </c>
       <c r="C40" t="s">
         <v>330</v>
@@ -15222,7 +15222,7 @@
         <v>44134</v>
       </c>
       <c r="B43" t="n">
-        <v>141403</v>
+        <v>172582</v>
       </c>
       <c r="C43" t="s">
         <v>351</v>
@@ -15362,7 +15362,7 @@
         <v>44134</v>
       </c>
       <c r="B45" t="n">
-        <v>141404</v>
+        <v>172583</v>
       </c>
       <c r="C45" t="s">
         <v>367</v>
@@ -15437,7 +15437,7 @@
         <v>44134</v>
       </c>
       <c r="B46" t="n">
-        <v>141405</v>
+        <v>172584</v>
       </c>
       <c r="C46" t="s">
         <v>376</v>
@@ -15508,7 +15508,7 @@
         <v>44134</v>
       </c>
       <c r="B47" t="n">
-        <v>141406</v>
+        <v>172585</v>
       </c>
       <c r="C47" t="s">
         <v>382</v>
@@ -15707,7 +15707,7 @@
         <v>44134</v>
       </c>
       <c r="B50" t="n">
-        <v>141407</v>
+        <v>172586</v>
       </c>
       <c r="C50" t="s">
         <v>402</v>
@@ -15768,7 +15768,7 @@
         <v>44134</v>
       </c>
       <c r="B51" t="n">
-        <v>141408</v>
+        <v>172587</v>
       </c>
       <c r="C51" t="s">
         <v>408</v>
@@ -15839,7 +15839,7 @@
         <v>44134</v>
       </c>
       <c r="B52" t="n">
-        <v>141409</v>
+        <v>172588</v>
       </c>
       <c r="C52" t="s">
         <v>415</v>
@@ -15910,7 +15910,7 @@
         <v>44134</v>
       </c>
       <c r="B53" t="n">
-        <v>141410</v>
+        <v>172589</v>
       </c>
       <c r="C53" t="s">
         <v>420</v>
@@ -15981,7 +15981,7 @@
         <v>44134</v>
       </c>
       <c r="B54" t="n">
-        <v>141411</v>
+        <v>172590</v>
       </c>
       <c r="C54" t="s">
         <v>426</v>
@@ -16052,7 +16052,7 @@
         <v>44134</v>
       </c>
       <c r="B55" t="n">
-        <v>141412</v>
+        <v>172591</v>
       </c>
       <c r="C55" t="s">
         <v>432</v>
@@ -16277,7 +16277,7 @@
         <v>44134</v>
       </c>
       <c r="B58" t="n">
-        <v>141413</v>
+        <v>172592</v>
       </c>
       <c r="C58" t="s">
         <v>457</v>
@@ -16622,7 +16622,7 @@
         <v>44134</v>
       </c>
       <c r="B63" t="n">
-        <v>141414</v>
+        <v>172593</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
@@ -16693,7 +16693,7 @@
         <v>44134</v>
       </c>
       <c r="B64" t="n">
-        <v>141415</v>
+        <v>172594</v>
       </c>
       <c r="C64" t="s">
         <v>506</v>
@@ -16764,7 +16764,7 @@
         <v>44134</v>
       </c>
       <c r="B65" t="n">
-        <v>141416</v>
+        <v>172595</v>
       </c>
       <c r="C65" t="s">
         <v>513</v>
@@ -16835,7 +16835,7 @@
         <v>44134</v>
       </c>
       <c r="B66" t="n">
-        <v>141417</v>
+        <v>172596</v>
       </c>
       <c r="C66" t="s">
         <v>519</v>
@@ -17032,7 +17032,7 @@
         <v>44134</v>
       </c>
       <c r="B69" t="n">
-        <v>141418</v>
+        <v>172597</v>
       </c>
       <c r="C69" t="s">
         <v>537</v>
@@ -17174,7 +17174,7 @@
         <v>44134</v>
       </c>
       <c r="B71" t="n">
-        <v>141419</v>
+        <v>172598</v>
       </c>
       <c r="C71" t="s">
         <v>549</v>
@@ -17245,7 +17245,7 @@
         <v>44134</v>
       </c>
       <c r="B72" t="n">
-        <v>141420</v>
+        <v>172599</v>
       </c>
       <c r="C72" t="s">
         <v>555</v>
@@ -17391,7 +17391,7 @@
         <v>44134</v>
       </c>
       <c r="B74" t="n">
-        <v>141421</v>
+        <v>172600</v>
       </c>
       <c r="C74" t="s">
         <v>569</v>
@@ -17462,7 +17462,7 @@
         <v>44134</v>
       </c>
       <c r="B75" t="n">
-        <v>141422</v>
+        <v>172601</v>
       </c>
       <c r="C75" t="s">
         <v>576</v>
@@ -17537,7 +17537,7 @@
         <v>44134</v>
       </c>
       <c r="B76" t="n">
-        <v>141423</v>
+        <v>172602</v>
       </c>
       <c r="C76" t="s">
         <v>585</v>
@@ -17612,7 +17612,7 @@
         <v>44134</v>
       </c>
       <c r="B77" t="n">
-        <v>141424</v>
+        <v>172603</v>
       </c>
       <c r="C77" t="s">
         <v>594</v>
@@ -17683,7 +17683,7 @@
         <v>44134</v>
       </c>
       <c r="B78" t="n">
-        <v>141425</v>
+        <v>172604</v>
       </c>
       <c r="C78" t="s">
         <v>600</v>
@@ -17748,7 +17748,7 @@
         <v>44134</v>
       </c>
       <c r="B79" t="n">
-        <v>141426</v>
+        <v>172605</v>
       </c>
       <c r="C79" t="s">
         <v>607</v>
@@ -17819,7 +17819,7 @@
         <v>44134</v>
       </c>
       <c r="B80" t="n">
-        <v>141427</v>
+        <v>172606</v>
       </c>
       <c r="C80" t="s">
         <v>613</v>
@@ -17890,7 +17890,7 @@
         <v>44134</v>
       </c>
       <c r="B81" t="n">
-        <v>141428</v>
+        <v>172607</v>
       </c>
       <c r="C81" t="s">
         <v>619</v>
@@ -17961,7 +17961,7 @@
         <v>44134</v>
       </c>
       <c r="B82" t="n">
-        <v>141429</v>
+        <v>172608</v>
       </c>
       <c r="C82" t="s">
         <v>625</v>
@@ -18103,7 +18103,7 @@
         <v>44134</v>
       </c>
       <c r="B84" t="n">
-        <v>141430</v>
+        <v>172609</v>
       </c>
       <c r="C84" t="s">
         <v>639</v>
@@ -18172,7 +18172,7 @@
         <v>44134</v>
       </c>
       <c r="B85" t="n">
-        <v>141431</v>
+        <v>172610</v>
       </c>
       <c r="C85" t="s">
         <v>646</v>
@@ -18241,7 +18241,7 @@
         <v>44134</v>
       </c>
       <c r="B86" t="n">
-        <v>141432</v>
+        <v>172611</v>
       </c>
       <c r="C86" t="s">
         <v>655</v>
@@ -18316,7 +18316,7 @@
         <v>44134</v>
       </c>
       <c r="B87" t="n">
-        <v>141433</v>
+        <v>172612</v>
       </c>
       <c r="C87" t="s">
         <v>663</v>
@@ -18466,7 +18466,7 @@
         <v>44134</v>
       </c>
       <c r="B89" t="n">
-        <v>141434</v>
+        <v>172613</v>
       </c>
       <c r="C89" t="s">
         <v>679</v>
@@ -18541,7 +18541,7 @@
         <v>44134</v>
       </c>
       <c r="B90" t="n">
-        <v>141435</v>
+        <v>172614</v>
       </c>
       <c r="C90" t="s">
         <v>688</v>
@@ -18616,7 +18616,7 @@
         <v>44134</v>
       </c>
       <c r="B91" t="n">
-        <v>141436</v>
+        <v>172615</v>
       </c>
       <c r="C91" t="s">
         <v>694</v>
@@ -18762,7 +18762,7 @@
         <v>44134</v>
       </c>
       <c r="B93" t="n">
-        <v>141437</v>
+        <v>172616</v>
       </c>
       <c r="C93" t="s">
         <v>710</v>
@@ -18837,7 +18837,7 @@
         <v>44134</v>
       </c>
       <c r="B94" t="n">
-        <v>141438</v>
+        <v>172617</v>
       </c>
       <c r="C94" t="s">
         <v>716</v>
@@ -18912,7 +18912,7 @@
         <v>44134</v>
       </c>
       <c r="B95" t="n">
-        <v>141439</v>
+        <v>172618</v>
       </c>
       <c r="C95" t="s">
         <v>723</v>
@@ -18979,7 +18979,7 @@
         <v>44134</v>
       </c>
       <c r="B96" t="n">
-        <v>141440</v>
+        <v>172619</v>
       </c>
       <c r="C96" t="s">
         <v>729</v>
@@ -19040,7 +19040,7 @@
         <v>44134</v>
       </c>
       <c r="B97" t="n">
-        <v>141441</v>
+        <v>172620</v>
       </c>
       <c r="C97" t="s">
         <v>736</v>
@@ -19107,7 +19107,7 @@
         <v>44134</v>
       </c>
       <c r="B98" t="n">
-        <v>141442</v>
+        <v>172621</v>
       </c>
       <c r="C98" t="s">
         <v>742</v>
@@ -19243,7 +19243,7 @@
         <v>44134</v>
       </c>
       <c r="B100" t="n">
-        <v>141443</v>
+        <v>172622</v>
       </c>
       <c r="C100" t="s">
         <v>753</v>
@@ -19300,7 +19300,7 @@
         <v>44134</v>
       </c>
       <c r="B101" t="n">
-        <v>141444</v>
+        <v>172623</v>
       </c>
       <c r="C101" t="s">
         <v>760</v>
@@ -19365,7 +19365,7 @@
         <v>44134</v>
       </c>
       <c r="B102" t="n">
-        <v>141445</v>
+        <v>172624</v>
       </c>
       <c r="C102" t="s">
         <v>768</v>
@@ -19430,7 +19430,7 @@
         <v>44134</v>
       </c>
       <c r="B103" t="n">
-        <v>141446</v>
+        <v>172625</v>
       </c>
       <c r="C103" t="s">
         <v>774</v>
@@ -19501,7 +19501,7 @@
         <v>44134</v>
       </c>
       <c r="B104" t="n">
-        <v>141447</v>
+        <v>172626</v>
       </c>
       <c r="C104" t="s">
         <v>780</v>
@@ -19568,7 +19568,7 @@
         <v>44134</v>
       </c>
       <c r="B105" t="n">
-        <v>141448</v>
+        <v>172627</v>
       </c>
       <c r="C105" t="s">
         <v>787</v>
@@ -19771,7 +19771,7 @@
         <v>44134</v>
       </c>
       <c r="B108" t="n">
-        <v>141449</v>
+        <v>172628</v>
       </c>
       <c r="C108" t="s">
         <v>804</v>
@@ -19838,7 +19838,7 @@
         <v>44134</v>
       </c>
       <c r="B109" t="n">
-        <v>141450</v>
+        <v>172629</v>
       </c>
       <c r="C109" t="s">
         <v>811</v>
@@ -20043,7 +20043,7 @@
         <v>44134</v>
       </c>
       <c r="B112" t="n">
-        <v>141451</v>
+        <v>172630</v>
       </c>
       <c r="C112" t="s">
         <v>831</v>
@@ -20179,7 +20179,7 @@
         <v>44134</v>
       </c>
       <c r="B114" t="n">
-        <v>141452</v>
+        <v>172631</v>
       </c>
       <c r="C114" t="s">
         <v>843</v>
@@ -20240,7 +20240,7 @@
         <v>44134</v>
       </c>
       <c r="B115" t="n">
-        <v>141453</v>
+        <v>172632</v>
       </c>
       <c r="C115" t="s">
         <v>849</v>
@@ -20378,7 +20378,7 @@
         <v>44134</v>
       </c>
       <c r="B117" t="n">
-        <v>141454</v>
+        <v>172633</v>
       </c>
       <c r="C117" t="s">
         <v>863</v>
@@ -20449,7 +20449,7 @@
         <v>44134</v>
       </c>
       <c r="B118" t="n">
-        <v>141455</v>
+        <v>172634</v>
       </c>
       <c r="C118" t="s">
         <v>869</v>
@@ -20585,7 +20585,7 @@
         <v>44134</v>
       </c>
       <c r="B120" t="n">
-        <v>141456</v>
+        <v>172635</v>
       </c>
       <c r="C120" t="s">
         <v>881</v>
@@ -20727,7 +20727,7 @@
         <v>44134</v>
       </c>
       <c r="B122" t="n">
-        <v>141457</v>
+        <v>172636</v>
       </c>
       <c r="C122" t="s">
         <v>893</v>
@@ -20798,7 +20798,7 @@
         <v>44134</v>
       </c>
       <c r="B123" t="n">
-        <v>141458</v>
+        <v>172637</v>
       </c>
       <c r="C123" t="s">
         <v>898</v>
@@ -20869,7 +20869,7 @@
         <v>44134</v>
       </c>
       <c r="B124" t="n">
-        <v>141459</v>
+        <v>172638</v>
       </c>
       <c r="C124" t="s">
         <v>904</v>
@@ -20940,7 +20940,7 @@
         <v>44134</v>
       </c>
       <c r="B125" t="n">
-        <v>141460</v>
+        <v>172639</v>
       </c>
       <c r="C125" t="s">
         <v>910</v>
@@ -21220,7 +21220,7 @@
         <v>44134</v>
       </c>
       <c r="B129" t="n">
-        <v>141461</v>
+        <v>172640</v>
       </c>
       <c r="C129" t="s">
         <v>934</v>
@@ -21291,7 +21291,7 @@
         <v>44134</v>
       </c>
       <c r="B130" t="n">
-        <v>141462</v>
+        <v>172641</v>
       </c>
       <c r="C130" t="s">
         <v>940</v>
@@ -21362,7 +21362,7 @@
         <v>44134</v>
       </c>
       <c r="B131" t="n">
-        <v>141463</v>
+        <v>172642</v>
       </c>
       <c r="C131" t="s">
         <v>946</v>
@@ -21433,7 +21433,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>141464</v>
+        <v>172643</v>
       </c>
       <c r="C132" t="s">
         <v>952</v>
@@ -21494,7 +21494,7 @@
         <v>44134</v>
       </c>
       <c r="B133" t="n">
-        <v>141465</v>
+        <v>172644</v>
       </c>
       <c r="C133" t="s">
         <v>958</v>
@@ -21636,7 +21636,7 @@
         <v>44134</v>
       </c>
       <c r="B135" t="n">
-        <v>141466</v>
+        <v>172645</v>
       </c>
       <c r="C135" t="s">
         <v>970</v>
@@ -21701,7 +21701,7 @@
         <v>44134</v>
       </c>
       <c r="B136" t="n">
-        <v>141467</v>
+        <v>172646</v>
       </c>
       <c r="C136" t="s">
         <v>977</v>
@@ -21772,7 +21772,7 @@
         <v>44134</v>
       </c>
       <c r="B137" t="n">
-        <v>141468</v>
+        <v>172647</v>
       </c>
       <c r="C137" t="s">
         <v>983</v>
@@ -21971,7 +21971,7 @@
         <v>44134</v>
       </c>
       <c r="B140" t="n">
-        <v>141469</v>
+        <v>172648</v>
       </c>
       <c r="C140" t="s">
         <v>1002</v>
@@ -22042,7 +22042,7 @@
         <v>44134</v>
       </c>
       <c r="B141" t="n">
-        <v>141470</v>
+        <v>172649</v>
       </c>
       <c r="C141" t="s">
         <v>1008</v>
@@ -22312,7 +22312,7 @@
         <v>44134</v>
       </c>
       <c r="B145" t="n">
-        <v>141471</v>
+        <v>172650</v>
       </c>
       <c r="C145" t="s">
         <v>1032</v>
@@ -22448,7 +22448,7 @@
         <v>44134</v>
       </c>
       <c r="B147" t="n">
-        <v>141472</v>
+        <v>172651</v>
       </c>
       <c r="C147" t="s">
         <v>1044</v>
@@ -22574,7 +22574,7 @@
         <v>44134</v>
       </c>
       <c r="B149" t="n">
-        <v>141473</v>
+        <v>172652</v>
       </c>
       <c r="C149" t="s">
         <v>1058</v>
@@ -22641,7 +22641,7 @@
         <v>44134</v>
       </c>
       <c r="B150" t="n">
-        <v>141474</v>
+        <v>172653</v>
       </c>
       <c r="C150" t="s">
         <v>1065</v>
@@ -22834,7 +22834,7 @@
         <v>44134</v>
       </c>
       <c r="B153" t="n">
-        <v>141475</v>
+        <v>172654</v>
       </c>
       <c r="C153" t="s">
         <v>1083</v>
@@ -23254,7 +23254,7 @@
         <v>44134</v>
       </c>
       <c r="B159" t="n">
-        <v>141476</v>
+        <v>172655</v>
       </c>
       <c r="C159" t="s">
         <v>1119</v>
@@ -23325,7 +23325,7 @@
         <v>44134</v>
       </c>
       <c r="B160" t="n">
-        <v>141477</v>
+        <v>172656</v>
       </c>
       <c r="C160" t="s">
         <v>1125</v>
@@ -23396,7 +23396,7 @@
         <v>44134</v>
       </c>
       <c r="B161" t="n">
-        <v>141478</v>
+        <v>172657</v>
       </c>
       <c r="C161" t="s">
         <v>1130</v>
@@ -23463,7 +23463,7 @@
         <v>44134</v>
       </c>
       <c r="B162" t="n">
-        <v>141479</v>
+        <v>172658</v>
       </c>
       <c r="C162" t="s">
         <v>1137</v>
@@ -23534,7 +23534,7 @@
         <v>44134</v>
       </c>
       <c r="B163" t="n">
-        <v>141480</v>
+        <v>172659</v>
       </c>
       <c r="C163" t="s">
         <v>1143</v>
@@ -23731,7 +23731,7 @@
         <v>44134</v>
       </c>
       <c r="B166" t="n">
-        <v>141481</v>
+        <v>172660</v>
       </c>
       <c r="C166" t="s">
         <v>1162</v>
@@ -23802,7 +23802,7 @@
         <v>44134</v>
       </c>
       <c r="B167" t="n">
-        <v>141482</v>
+        <v>172661</v>
       </c>
       <c r="C167" t="s">
         <v>1168</v>
@@ -23873,7 +23873,7 @@
         <v>44134</v>
       </c>
       <c r="B168" t="n">
-        <v>141483</v>
+        <v>172662</v>
       </c>
       <c r="C168" t="s">
         <v>1176</v>
@@ -24015,7 +24015,7 @@
         <v>44134</v>
       </c>
       <c r="B170" t="n">
-        <v>141484</v>
+        <v>172663</v>
       </c>
       <c r="C170" t="s">
         <v>1187</v>
@@ -24224,7 +24224,7 @@
         <v>44134</v>
       </c>
       <c r="B173" t="n">
-        <v>141485</v>
+        <v>172664</v>
       </c>
       <c r="C173" t="s">
         <v>1204</v>
@@ -24291,7 +24291,7 @@
         <v>44134</v>
       </c>
       <c r="B174" t="n">
-        <v>141486</v>
+        <v>172665</v>
       </c>
       <c r="C174" t="s">
         <v>1210</v>
@@ -24362,7 +24362,7 @@
         <v>44134</v>
       </c>
       <c r="B175" t="n">
-        <v>141487</v>
+        <v>172666</v>
       </c>
       <c r="C175" t="s">
         <v>1216</v>
@@ -24494,7 +24494,7 @@
         <v>44134</v>
       </c>
       <c r="B177" t="n">
-        <v>141488</v>
+        <v>172667</v>
       </c>
       <c r="C177" t="s">
         <v>1227</v>
@@ -24636,7 +24636,7 @@
         <v>44134</v>
       </c>
       <c r="B179" t="n">
-        <v>141489</v>
+        <v>172668</v>
       </c>
       <c r="C179" t="s">
         <v>1238</v>
@@ -24711,7 +24711,7 @@
         <v>44134</v>
       </c>
       <c r="B180" t="n">
-        <v>141490</v>
+        <v>172669</v>
       </c>
       <c r="C180" t="s">
         <v>1247</v>
@@ -24782,7 +24782,7 @@
         <v>44134</v>
       </c>
       <c r="B181" t="n">
-        <v>141491</v>
+        <v>172670</v>
       </c>
       <c r="C181" t="s">
         <v>1253</v>
@@ -24924,7 +24924,7 @@
         <v>44134</v>
       </c>
       <c r="B183" t="n">
-        <v>141492</v>
+        <v>172671</v>
       </c>
       <c r="C183" t="s">
         <v>1265</v>
@@ -24991,7 +24991,7 @@
         <v>44134</v>
       </c>
       <c r="B184" t="n">
-        <v>141493</v>
+        <v>172672</v>
       </c>
       <c r="C184" t="s">
         <v>1271</v>
@@ -25208,7 +25208,7 @@
         <v>44134</v>
       </c>
       <c r="B187" t="n">
-        <v>141494</v>
+        <v>172673</v>
       </c>
       <c r="C187" t="s">
         <v>1290</v>
@@ -25269,7 +25269,7 @@
         <v>44134</v>
       </c>
       <c r="B188" t="n">
-        <v>141495</v>
+        <v>172674</v>
       </c>
       <c r="C188" t="s">
         <v>1296</v>
@@ -25340,7 +25340,7 @@
         <v>44134</v>
       </c>
       <c r="B189" t="n">
-        <v>141496</v>
+        <v>172675</v>
       </c>
       <c r="C189" t="s">
         <v>1302</v>
@@ -25411,7 +25411,7 @@
         <v>44134</v>
       </c>
       <c r="B190" t="n">
-        <v>141497</v>
+        <v>172676</v>
       </c>
       <c r="C190" t="s">
         <v>1308</v>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="B191" t="n">
-        <v>141498</v>
+        <v>172677</v>
       </c>
       <c r="C191" t="s">
         <v>1314</v>
@@ -25553,7 +25553,7 @@
         <v>44134</v>
       </c>
       <c r="B192" t="n">
-        <v>141499</v>
+        <v>172678</v>
       </c>
       <c r="C192" t="s">
         <v>1320</v>
@@ -25624,7 +25624,7 @@
         <v>44134</v>
       </c>
       <c r="B193" t="n">
-        <v>141500</v>
+        <v>172679</v>
       </c>
       <c r="C193" t="s">
         <v>1326</v>
@@ -25695,7 +25695,7 @@
         <v>44134</v>
       </c>
       <c r="B194" t="n">
-        <v>141501</v>
+        <v>172680</v>
       </c>
       <c r="C194" t="s">
         <v>1332</v>
@@ -25766,7 +25766,7 @@
         <v>44134</v>
       </c>
       <c r="B195" t="n">
-        <v>141502</v>
+        <v>172681</v>
       </c>
       <c r="C195" t="s">
         <v>1338</v>
@@ -25827,7 +25827,7 @@
         <v>44134</v>
       </c>
       <c r="B196" t="n">
-        <v>141503</v>
+        <v>172682</v>
       </c>
       <c r="C196" t="s">
         <v>1345</v>
@@ -25898,7 +25898,7 @@
         <v>44134</v>
       </c>
       <c r="B197" t="n">
-        <v>141504</v>
+        <v>172683</v>
       </c>
       <c r="C197" t="s">
         <v>1351</v>
@@ -25969,7 +25969,7 @@
         <v>44134</v>
       </c>
       <c r="B198" t="n">
-        <v>141505</v>
+        <v>172684</v>
       </c>
       <c r="C198" t="s">
         <v>1356</v>
@@ -26040,7 +26040,7 @@
         <v>44134</v>
       </c>
       <c r="B199" t="n">
-        <v>141506</v>
+        <v>172685</v>
       </c>
       <c r="C199" t="s">
         <v>1361</v>
@@ -26111,7 +26111,7 @@
         <v>44134</v>
       </c>
       <c r="B200" t="n">
-        <v>141507</v>
+        <v>172686</v>
       </c>
       <c r="C200" t="s">
         <v>1367</v>
@@ -26253,7 +26253,7 @@
         <v>44134</v>
       </c>
       <c r="B202" t="n">
-        <v>141508</v>
+        <v>172687</v>
       </c>
       <c r="C202" t="s">
         <v>1378</v>
@@ -26456,7 +26456,7 @@
         <v>44134</v>
       </c>
       <c r="B205" t="n">
-        <v>141509</v>
+        <v>172688</v>
       </c>
       <c r="C205" t="s">
         <v>1394</v>
@@ -26527,7 +26527,7 @@
         <v>44134</v>
       </c>
       <c r="B206" t="n">
-        <v>141510</v>
+        <v>172689</v>
       </c>
       <c r="C206" t="s">
         <v>1400</v>
@@ -26598,7 +26598,7 @@
         <v>44134</v>
       </c>
       <c r="B207" t="n">
-        <v>141511</v>
+        <v>172690</v>
       </c>
       <c r="C207" t="s">
         <v>1406</v>
@@ -26669,7 +26669,7 @@
         <v>44134</v>
       </c>
       <c r="B208" t="n">
-        <v>141512</v>
+        <v>172691</v>
       </c>
       <c r="C208" t="s">
         <v>1412</v>
@@ -26876,7 +26876,7 @@
         <v>44134</v>
       </c>
       <c r="B211" t="n">
-        <v>141513</v>
+        <v>172692</v>
       </c>
       <c r="C211" t="s">
         <v>1431</v>
@@ -26947,7 +26947,7 @@
         <v>44134</v>
       </c>
       <c r="B212" t="n">
-        <v>141514</v>
+        <v>172693</v>
       </c>
       <c r="C212" t="s">
         <v>1436</v>
@@ -27144,7 +27144,7 @@
         <v>44134</v>
       </c>
       <c r="B215" t="n">
-        <v>141515</v>
+        <v>172694</v>
       </c>
       <c r="C215" t="s">
         <v>1460</v>
@@ -27215,7 +27215,7 @@
         <v>44134</v>
       </c>
       <c r="B216" t="n">
-        <v>141516</v>
+        <v>172695</v>
       </c>
       <c r="C216" t="s">
         <v>1466</v>
@@ -27286,7 +27286,7 @@
         <v>44134</v>
       </c>
       <c r="B217" t="n">
-        <v>141517</v>
+        <v>172696</v>
       </c>
       <c r="C217" t="s">
         <v>1472</v>
@@ -27418,7 +27418,7 @@
         <v>44134</v>
       </c>
       <c r="B219" t="n">
-        <v>141518</v>
+        <v>172697</v>
       </c>
       <c r="C219" t="s">
         <v>1484</v>
@@ -27692,7 +27692,7 @@
         <v>44134</v>
       </c>
       <c r="B223" t="n">
-        <v>141519</v>
+        <v>172698</v>
       </c>
       <c r="C223" t="s">
         <v>1506</v>
@@ -27968,7 +27968,7 @@
         <v>44134</v>
       </c>
       <c r="B227" t="n">
-        <v>141520</v>
+        <v>172699</v>
       </c>
       <c r="C227" t="s">
         <v>1533</v>
@@ -28106,7 +28106,7 @@
         <v>44134</v>
       </c>
       <c r="B229" t="n">
-        <v>141521</v>
+        <v>172700</v>
       </c>
       <c r="C229" t="s">
         <v>1545</v>
@@ -28167,7 +28167,7 @@
         <v>44134</v>
       </c>
       <c r="B230" t="n">
-        <v>141522</v>
+        <v>172701</v>
       </c>
       <c r="C230" t="s">
         <v>1554</v>
@@ -28238,7 +28238,7 @@
         <v>44134</v>
       </c>
       <c r="B231" t="n">
-        <v>141523</v>
+        <v>172702</v>
       </c>
       <c r="C231" t="s">
         <v>1560</v>
@@ -28309,7 +28309,7 @@
         <v>44134</v>
       </c>
       <c r="B232" t="n">
-        <v>141524</v>
+        <v>172703</v>
       </c>
       <c r="C232" t="s">
         <v>1566</v>
@@ -28451,7 +28451,7 @@
         <v>44134</v>
       </c>
       <c r="B234" t="n">
-        <v>141525</v>
+        <v>172704</v>
       </c>
       <c r="C234" t="s">
         <v>1579</v>
@@ -28727,7 +28727,7 @@
         <v>44134</v>
       </c>
       <c r="B238" t="n">
-        <v>141526</v>
+        <v>172705</v>
       </c>
       <c r="C238" t="s">
         <v>1602</v>
@@ -28798,7 +28798,7 @@
         <v>44134</v>
       </c>
       <c r="B239" t="n">
-        <v>141527</v>
+        <v>172706</v>
       </c>
       <c r="C239" t="s">
         <v>1611</v>
@@ -28873,7 +28873,7 @@
         <v>44134</v>
       </c>
       <c r="B240" t="n">
-        <v>141528</v>
+        <v>172707</v>
       </c>
       <c r="C240" t="s">
         <v>1620</v>
@@ -29001,7 +29001,7 @@
         <v>44134</v>
       </c>
       <c r="B242" t="n">
-        <v>141529</v>
+        <v>172708</v>
       </c>
       <c r="C242" t="s">
         <v>1633</v>
@@ -29411,7 +29411,7 @@
         <v>44134</v>
       </c>
       <c r="B248" t="n">
-        <v>141530</v>
+        <v>172709</v>
       </c>
       <c r="C248" t="s">
         <v>1675</v>
@@ -29482,7 +29482,7 @@
         <v>44134</v>
       </c>
       <c r="B249" t="n">
-        <v>141531</v>
+        <v>172710</v>
       </c>
       <c r="C249" t="s">
         <v>1681</v>
@@ -29553,7 +29553,7 @@
         <v>44134</v>
       </c>
       <c r="B250" t="n">
-        <v>141532</v>
+        <v>172711</v>
       </c>
       <c r="C250" t="s">
         <v>1686</v>
@@ -29695,7 +29695,7 @@
         <v>44134</v>
       </c>
       <c r="B252" t="n">
-        <v>141533</v>
+        <v>172712</v>
       </c>
       <c r="C252" t="s">
         <v>1698</v>
@@ -29837,7 +29837,7 @@
         <v>44134</v>
       </c>
       <c r="B254" t="n">
-        <v>141534</v>
+        <v>172713</v>
       </c>
       <c r="C254" t="s">
         <v>1710</v>
@@ -29908,7 +29908,7 @@
         <v>44134</v>
       </c>
       <c r="B255" t="n">
-        <v>141535</v>
+        <v>172714</v>
       </c>
       <c r="C255" t="s">
         <v>1716</v>
@@ -30046,7 +30046,7 @@
         <v>44134</v>
       </c>
       <c r="B257" t="n">
-        <v>141536</v>
+        <v>172715</v>
       </c>
       <c r="C257" t="s">
         <v>1726</v>
@@ -30111,7 +30111,7 @@
         <v>44134</v>
       </c>
       <c r="B258" t="n">
-        <v>141537</v>
+        <v>172716</v>
       </c>
       <c r="C258" t="s">
         <v>1732</v>
@@ -30178,7 +30178,7 @@
         <v>44134</v>
       </c>
       <c r="B259" t="n">
-        <v>141538</v>
+        <v>172717</v>
       </c>
       <c r="C259" t="s">
         <v>1738</v>
@@ -30245,7 +30245,7 @@
         <v>44134</v>
       </c>
       <c r="B260" t="n">
-        <v>141539</v>
+        <v>172718</v>
       </c>
       <c r="C260" t="s">
         <v>1744</v>
@@ -30310,7 +30310,7 @@
         <v>44134</v>
       </c>
       <c r="B261" t="n">
-        <v>141540</v>
+        <v>172719</v>
       </c>
       <c r="C261" t="s">
         <v>1751</v>
@@ -30649,7 +30649,7 @@
         <v>44134</v>
       </c>
       <c r="B266" t="n">
-        <v>141541</v>
+        <v>172720</v>
       </c>
       <c r="C266" t="s">
         <v>1780</v>
@@ -30795,7 +30795,7 @@
         <v>44134</v>
       </c>
       <c r="B268" t="n">
-        <v>141542</v>
+        <v>172721</v>
       </c>
       <c r="C268" t="s">
         <v>1796</v>
@@ -30866,7 +30866,7 @@
         <v>44134</v>
       </c>
       <c r="B269" t="n">
-        <v>141543</v>
+        <v>172722</v>
       </c>
       <c r="C269" t="s">
         <v>1802</v>
@@ -30931,7 +30931,7 @@
         <v>44134</v>
       </c>
       <c r="B270" t="n">
-        <v>141544</v>
+        <v>172723</v>
       </c>
       <c r="C270" t="s">
         <v>1811</v>
@@ -30996,7 +30996,7 @@
         <v>44134</v>
       </c>
       <c r="B271" t="n">
-        <v>141545</v>
+        <v>172724</v>
       </c>
       <c r="C271" t="s">
         <v>1817</v>
@@ -31061,7 +31061,7 @@
         <v>44134</v>
       </c>
       <c r="B272" t="n">
-        <v>141546</v>
+        <v>172725</v>
       </c>
       <c r="C272" t="s">
         <v>1823</v>
@@ -31128,7 +31128,7 @@
         <v>44134</v>
       </c>
       <c r="B273" t="n">
-        <v>141547</v>
+        <v>172726</v>
       </c>
       <c r="C273" t="s">
         <v>1830</v>
@@ -31189,7 +31189,7 @@
         <v>44134</v>
       </c>
       <c r="B274" t="n">
-        <v>141548</v>
+        <v>172727</v>
       </c>
       <c r="C274" t="s">
         <v>1836</v>
@@ -31388,7 +31388,7 @@
         <v>44134</v>
       </c>
       <c r="B277" t="n">
-        <v>141549</v>
+        <v>172728</v>
       </c>
       <c r="C277" t="s">
         <v>1855</v>
@@ -31459,7 +31459,7 @@
         <v>44134</v>
       </c>
       <c r="B278" t="n">
-        <v>141550</v>
+        <v>172729</v>
       </c>
       <c r="C278" t="s">
         <v>1864</v>
@@ -31595,7 +31595,7 @@
         <v>44134</v>
       </c>
       <c r="B280" t="n">
-        <v>141551</v>
+        <v>172730</v>
       </c>
       <c r="C280" t="s">
         <v>1880</v>
@@ -31670,7 +31670,7 @@
         <v>44134</v>
       </c>
       <c r="B281" t="n">
-        <v>141552</v>
+        <v>172731</v>
       </c>
       <c r="C281" t="s">
         <v>1887</v>
@@ -31735,7 +31735,7 @@
         <v>44134</v>
       </c>
       <c r="B282" t="n">
-        <v>141553</v>
+        <v>172732</v>
       </c>
       <c r="C282" t="s">
         <v>1893</v>
@@ -31871,7 +31871,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>141554</v>
+        <v>172733</v>
       </c>
       <c r="C284" t="s">
         <v>1907</v>
@@ -31932,7 +31932,7 @@
         <v>44134</v>
       </c>
       <c r="B285" t="n">
-        <v>141555</v>
+        <v>172734</v>
       </c>
       <c r="C285" t="s">
         <v>1913</v>
@@ -32141,7 +32141,7 @@
         <v>44134</v>
       </c>
       <c r="B288" t="n">
-        <v>141556</v>
+        <v>172735</v>
       </c>
       <c r="C288" t="s">
         <v>1933</v>
@@ -32206,7 +32206,7 @@
         <v>44134</v>
       </c>
       <c r="B289" t="n">
-        <v>141557</v>
+        <v>172736</v>
       </c>
       <c r="C289" t="s">
         <v>1940</v>
@@ -32267,7 +32267,7 @@
         <v>44134</v>
       </c>
       <c r="B290" t="n">
-        <v>141558</v>
+        <v>172737</v>
       </c>
       <c r="C290" t="s">
         <v>1946</v>
@@ -32409,7 +32409,7 @@
         <v>44134</v>
       </c>
       <c r="B292" t="n">
-        <v>141559</v>
+        <v>172738</v>
       </c>
       <c r="C292" t="s">
         <v>1955</v>
@@ -32470,7 +32470,7 @@
         <v>44134</v>
       </c>
       <c r="B293" t="n">
-        <v>141560</v>
+        <v>172739</v>
       </c>
       <c r="C293" t="s">
         <v>1961</v>
@@ -32537,7 +32537,7 @@
         <v>44134</v>
       </c>
       <c r="B294" t="n">
-        <v>141561</v>
+        <v>172740</v>
       </c>
       <c r="C294" t="s">
         <v>1967</v>
@@ -32677,7 +32677,7 @@
         <v>44134</v>
       </c>
       <c r="B296" t="n">
-        <v>141562</v>
+        <v>172741</v>
       </c>
       <c r="C296" t="s">
         <v>1983</v>
@@ -32813,7 +32813,7 @@
         <v>44134</v>
       </c>
       <c r="B298" t="n">
-        <v>141563</v>
+        <v>172742</v>
       </c>
       <c r="C298" t="s">
         <v>1996</v>
@@ -32884,7 +32884,7 @@
         <v>44134</v>
       </c>
       <c r="B299" t="n">
-        <v>141564</v>
+        <v>172743</v>
       </c>
       <c r="C299" t="s">
         <v>2002</v>
@@ -33369,7 +33369,7 @@
         <v>44134</v>
       </c>
       <c r="B306" t="n">
-        <v>141565</v>
+        <v>172744</v>
       </c>
       <c r="C306" t="s">
         <v>2051</v>
@@ -33440,7 +33440,7 @@
         <v>44134</v>
       </c>
       <c r="B307" t="n">
-        <v>141566</v>
+        <v>172745</v>
       </c>
       <c r="C307" t="s">
         <v>2057</v>
@@ -33507,7 +33507,7 @@
         <v>44134</v>
       </c>
       <c r="B308" t="n">
-        <v>141567</v>
+        <v>172746</v>
       </c>
       <c r="C308" t="s">
         <v>2062</v>
@@ -33779,7 +33779,7 @@
         <v>44134</v>
       </c>
       <c r="B312" t="n">
-        <v>141568</v>
+        <v>172747</v>
       </c>
       <c r="C312" t="s">
         <v>2092</v>
@@ -33911,7 +33911,7 @@
         <v>44134</v>
       </c>
       <c r="B314" t="n">
-        <v>141569</v>
+        <v>172748</v>
       </c>
       <c r="C314" t="s">
         <v>2104</v>
@@ -33976,7 +33976,7 @@
         <v>44134</v>
       </c>
       <c r="B315" t="n">
-        <v>141570</v>
+        <v>172749</v>
       </c>
       <c r="C315" t="s">
         <v>2113</v>
@@ -34051,7 +34051,7 @@
         <v>44134</v>
       </c>
       <c r="B316" t="n">
-        <v>141571</v>
+        <v>172750</v>
       </c>
       <c r="C316" t="s">
         <v>2120</v>
@@ -34339,7 +34339,7 @@
         <v>44134</v>
       </c>
       <c r="B320" t="n">
-        <v>141572</v>
+        <v>172751</v>
       </c>
       <c r="C320" t="s">
         <v>2150</v>
@@ -34414,7 +34414,7 @@
         <v>44134</v>
       </c>
       <c r="B321" t="n">
-        <v>141573</v>
+        <v>172752</v>
       </c>
       <c r="C321" t="s">
         <v>2158</v>
@@ -34846,7 +34846,7 @@
         <v>44134</v>
       </c>
       <c r="B327" t="n">
-        <v>141574</v>
+        <v>172753</v>
       </c>
       <c r="C327" t="s">
         <v>2201</v>
@@ -34921,7 +34921,7 @@
         <v>44134</v>
       </c>
       <c r="B328" t="n">
-        <v>141575</v>
+        <v>172754</v>
       </c>
       <c r="C328" t="s">
         <v>2208</v>
@@ -34986,7 +34986,7 @@
         <v>44134</v>
       </c>
       <c r="B329" t="n">
-        <v>141576</v>
+        <v>172755</v>
       </c>
       <c r="C329" t="s">
         <v>2214</v>
@@ -35053,7 +35053,7 @@
         <v>44134</v>
       </c>
       <c r="B330" t="n">
-        <v>141577</v>
+        <v>172756</v>
       </c>
       <c r="C330" t="s">
         <v>2221</v>
@@ -35191,7 +35191,7 @@
         <v>44134</v>
       </c>
       <c r="B332" t="n">
-        <v>141578</v>
+        <v>172757</v>
       </c>
       <c r="C332" t="s">
         <v>2234</v>
@@ -35266,7 +35266,7 @@
         <v>44134</v>
       </c>
       <c r="B333" t="n">
-        <v>141579</v>
+        <v>172758</v>
       </c>
       <c r="C333" t="s">
         <v>2243</v>
@@ -35548,7 +35548,7 @@
         <v>44134</v>
       </c>
       <c r="B337" t="n">
-        <v>141580</v>
+        <v>172759</v>
       </c>
       <c r="C337" t="s">
         <v>2272</v>
@@ -35688,7 +35688,7 @@
         <v>44134</v>
       </c>
       <c r="B339" t="n">
-        <v>141581</v>
+        <v>172760</v>
       </c>
       <c r="C339" t="s">
         <v>2287</v>
@@ -35755,7 +35755,7 @@
         <v>44134</v>
       </c>
       <c r="B340" t="n">
-        <v>141582</v>
+        <v>172761</v>
       </c>
       <c r="C340" t="s">
         <v>2293</v>
@@ -35826,7 +35826,7 @@
         <v>44134</v>
       </c>
       <c r="B341" t="n">
-        <v>141583</v>
+        <v>172762</v>
       </c>
       <c r="C341" t="s">
         <v>2298</v>
@@ -36037,7 +36037,7 @@
         <v>44134</v>
       </c>
       <c r="B344" t="n">
-        <v>141584</v>
+        <v>172763</v>
       </c>
       <c r="C344" t="s">
         <v>2322</v>
@@ -36108,7 +36108,7 @@
         <v>44134</v>
       </c>
       <c r="B345" t="n">
-        <v>141585</v>
+        <v>172764</v>
       </c>
       <c r="C345" t="s">
         <v>2329</v>
@@ -36248,7 +36248,7 @@
         <v>44134</v>
       </c>
       <c r="B347" t="n">
-        <v>141586</v>
+        <v>172765</v>
       </c>
       <c r="C347" t="s">
         <v>2344</v>
@@ -36309,7 +36309,7 @@
         <v>44134</v>
       </c>
       <c r="B348" t="n">
-        <v>141587</v>
+        <v>172766</v>
       </c>
       <c r="C348" t="s">
         <v>2350</v>
@@ -36455,7 +36455,7 @@
         <v>44134</v>
       </c>
       <c r="B350" t="n">
-        <v>141588</v>
+        <v>172767</v>
       </c>
       <c r="C350" t="s">
         <v>2365</v>
@@ -36530,7 +36530,7 @@
         <v>44134</v>
       </c>
       <c r="B351" t="n">
-        <v>141589</v>
+        <v>172768</v>
       </c>
       <c r="C351" t="s">
         <v>2374</v>
@@ -36812,7 +36812,7 @@
         <v>44134</v>
       </c>
       <c r="B355" t="n">
-        <v>141590</v>
+        <v>172769</v>
       </c>
       <c r="C355" t="s">
         <v>2402</v>
@@ -37025,7 +37025,7 @@
         <v>44134</v>
       </c>
       <c r="B358" t="n">
-        <v>141591</v>
+        <v>172770</v>
       </c>
       <c r="C358" t="s">
         <v>2419</v>
@@ -37384,7 +37384,7 @@
         <v>44134</v>
       </c>
       <c r="B363" t="n">
-        <v>141592</v>
+        <v>172771</v>
       </c>
       <c r="C363" t="s">
         <v>2452</v>
@@ -37455,7 +37455,7 @@
         <v>44134</v>
       </c>
       <c r="B364" t="n">
-        <v>141593</v>
+        <v>172772</v>
       </c>
       <c r="C364" t="s">
         <v>2458</v>
@@ -37601,7 +37601,7 @@
         <v>44134</v>
       </c>
       <c r="B366" t="n">
-        <v>141594</v>
+        <v>172773</v>
       </c>
       <c r="C366" t="s">
         <v>2473</v>
@@ -37676,7 +37676,7 @@
         <v>44134</v>
       </c>
       <c r="B367" t="n">
-        <v>141595</v>
+        <v>172774</v>
       </c>
       <c r="C367" t="s">
         <v>2481</v>
@@ -37881,7 +37881,7 @@
         <v>44134</v>
       </c>
       <c r="B370" t="n">
-        <v>141596</v>
+        <v>172775</v>
       </c>
       <c r="C370" t="s">
         <v>2505</v>
@@ -38023,7 +38023,7 @@
         <v>44134</v>
       </c>
       <c r="B372" t="n">
-        <v>141597</v>
+        <v>172776</v>
       </c>
       <c r="C372" t="s">
         <v>2517</v>
@@ -38165,7 +38165,7 @@
         <v>44134</v>
       </c>
       <c r="B374" t="n">
-        <v>141598</v>
+        <v>172777</v>
       </c>
       <c r="C374" t="s">
         <v>2527</v>
@@ -38378,7 +38378,7 @@
         <v>44134</v>
       </c>
       <c r="B377" t="n">
-        <v>141599</v>
+        <v>172778</v>
       </c>
       <c r="C377" t="s">
         <v>2547</v>
@@ -38453,7 +38453,7 @@
         <v>44134</v>
       </c>
       <c r="B378" t="n">
-        <v>141600</v>
+        <v>172779</v>
       </c>
       <c r="C378" t="s">
         <v>2556</v>
@@ -38524,7 +38524,7 @@
         <v>44134</v>
       </c>
       <c r="B379" t="n">
-        <v>141601</v>
+        <v>172780</v>
       </c>
       <c r="C379" t="s">
         <v>2563</v>
@@ -38595,7 +38595,7 @@
         <v>44134</v>
       </c>
       <c r="B380" t="n">
-        <v>141602</v>
+        <v>172781</v>
       </c>
       <c r="C380" t="s">
         <v>2569</v>
@@ -38954,7 +38954,7 @@
         <v>44134</v>
       </c>
       <c r="B385" t="n">
-        <v>141603</v>
+        <v>172782</v>
       </c>
       <c r="C385" t="s">
         <v>2603</v>
@@ -39025,7 +39025,7 @@
         <v>44134</v>
       </c>
       <c r="B386" t="n">
-        <v>141604</v>
+        <v>172783</v>
       </c>
       <c r="C386" t="s">
         <v>2610</v>
@@ -39309,7 +39309,7 @@
         <v>44134</v>
       </c>
       <c r="B390" t="n">
-        <v>141605</v>
+        <v>172784</v>
       </c>
       <c r="C390" t="s">
         <v>2635</v>
@@ -39384,7 +39384,7 @@
         <v>44134</v>
       </c>
       <c r="B391" t="n">
-        <v>141606</v>
+        <v>172785</v>
       </c>
       <c r="C391" t="s">
         <v>2644</v>
@@ -39520,7 +39520,7 @@
         <v>44134</v>
       </c>
       <c r="B393" t="n">
-        <v>141607</v>
+        <v>172786</v>
       </c>
       <c r="C393" t="s">
         <v>2658</v>
@@ -39591,7 +39591,7 @@
         <v>44134</v>
       </c>
       <c r="B394" t="n">
-        <v>141608</v>
+        <v>172787</v>
       </c>
       <c r="C394" t="s">
         <v>2664</v>
@@ -39737,7 +39737,7 @@
         <v>44134</v>
       </c>
       <c r="B396" t="n">
-        <v>141609</v>
+        <v>172788</v>
       </c>
       <c r="C396" t="s">
         <v>2679</v>
@@ -39879,7 +39879,7 @@
         <v>44134</v>
       </c>
       <c r="B398" t="n">
-        <v>141610</v>
+        <v>172789</v>
       </c>
       <c r="C398" t="s">
         <v>2690</v>
@@ -39950,7 +39950,7 @@
         <v>44134</v>
       </c>
       <c r="B399" t="n">
-        <v>141611</v>
+        <v>172790</v>
       </c>
       <c r="C399" t="s">
         <v>2696</v>
@@ -40092,7 +40092,7 @@
         <v>44134</v>
       </c>
       <c r="B401" t="n">
-        <v>141612</v>
+        <v>172791</v>
       </c>
       <c r="C401" t="s">
         <v>2708</v>
@@ -40161,7 +40161,7 @@
         <v>44134</v>
       </c>
       <c r="B402" t="n">
-        <v>141613</v>
+        <v>172792</v>
       </c>
       <c r="C402" t="s">
         <v>2713</v>
@@ -40289,7 +40289,7 @@
         <v>44134</v>
       </c>
       <c r="B404" t="n">
-        <v>141614</v>
+        <v>172793</v>
       </c>
       <c r="C404" t="s">
         <v>2724</v>
@@ -40360,7 +40360,7 @@
         <v>44134</v>
       </c>
       <c r="B405" t="n">
-        <v>141615</v>
+        <v>172794</v>
       </c>
       <c r="C405" t="s">
         <v>2730</v>
@@ -40431,7 +40431,7 @@
         <v>44134</v>
       </c>
       <c r="B406" t="n">
-        <v>141616</v>
+        <v>172795</v>
       </c>
       <c r="C406" t="s">
         <v>2738</v>
@@ -40498,7 +40498,7 @@
         <v>44134</v>
       </c>
       <c r="B407" t="n">
-        <v>141617</v>
+        <v>172796</v>
       </c>
       <c r="C407" t="s">
         <v>2744</v>
@@ -40559,7 +40559,7 @@
         <v>44134</v>
       </c>
       <c r="B408" t="n">
-        <v>141618</v>
+        <v>172797</v>
       </c>
       <c r="C408" t="s">
         <v>2750</v>
@@ -40630,7 +40630,7 @@
         <v>44134</v>
       </c>
       <c r="B409" t="n">
-        <v>141619</v>
+        <v>172798</v>
       </c>
       <c r="C409" t="s">
         <v>2756</v>
@@ -40772,7 +40772,7 @@
         <v>44134</v>
       </c>
       <c r="B411" t="n">
-        <v>141620</v>
+        <v>172799</v>
       </c>
       <c r="C411" t="s">
         <v>2770</v>
@@ -40918,7 +40918,7 @@
         <v>44134</v>
       </c>
       <c r="B413" t="n">
-        <v>141621</v>
+        <v>172800</v>
       </c>
       <c r="C413" t="s">
         <v>2786</v>
@@ -41135,7 +41135,7 @@
         <v>44134</v>
       </c>
       <c r="B416" t="n">
-        <v>141622</v>
+        <v>172801</v>
       </c>
       <c r="C416" t="s">
         <v>2807</v>
@@ -41277,7 +41277,7 @@
         <v>44134</v>
       </c>
       <c r="B418" t="n">
-        <v>141623</v>
+        <v>172802</v>
       </c>
       <c r="C418" t="s">
         <v>2819</v>
@@ -41419,7 +41419,7 @@
         <v>44134</v>
       </c>
       <c r="B420" t="n">
-        <v>141624</v>
+        <v>172803</v>
       </c>
       <c r="C420" t="s">
         <v>2829</v>
@@ -41632,7 +41632,7 @@
         <v>44134</v>
       </c>
       <c r="B423" t="n">
-        <v>141625</v>
+        <v>172804</v>
       </c>
       <c r="C423" t="s">
         <v>2847</v>
@@ -41707,7 +41707,7 @@
         <v>44134</v>
       </c>
       <c r="B424" t="n">
-        <v>141626</v>
+        <v>172805</v>
       </c>
       <c r="C424" t="s">
         <v>2855</v>
@@ -41853,7 +41853,7 @@
         <v>44134</v>
       </c>
       <c r="B426" t="n">
-        <v>141627</v>
+        <v>172806</v>
       </c>
       <c r="C426" t="s">
         <v>2868</v>
@@ -42068,7 +42068,7 @@
         <v>44134</v>
       </c>
       <c r="B429" t="n">
-        <v>141628</v>
+        <v>172807</v>
       </c>
       <c r="C429" t="s">
         <v>2891</v>
@@ -42214,7 +42214,7 @@
         <v>44134</v>
       </c>
       <c r="B431" t="n">
-        <v>141629</v>
+        <v>172808</v>
       </c>
       <c r="C431" t="s">
         <v>2907</v>
@@ -42285,7 +42285,7 @@
         <v>44134</v>
       </c>
       <c r="B432" t="n">
-        <v>141630</v>
+        <v>172809</v>
       </c>
       <c r="C432" t="s">
         <v>2914</v>
@@ -42500,7 +42500,7 @@
         <v>44134</v>
       </c>
       <c r="B435" t="n">
-        <v>141631</v>
+        <v>172810</v>
       </c>
       <c r="C435" t="s">
         <v>2935</v>
@@ -42796,7 +42796,7 @@
         <v>44134</v>
       </c>
       <c r="B439" t="n">
-        <v>141632</v>
+        <v>172811</v>
       </c>
       <c r="C439" t="s">
         <v>2967</v>
@@ -42871,7 +42871,7 @@
         <v>44134</v>
       </c>
       <c r="B440" t="n">
-        <v>141633</v>
+        <v>172812</v>
       </c>
       <c r="C440" t="s">
         <v>2974</v>
@@ -43017,7 +43017,7 @@
         <v>44134</v>
       </c>
       <c r="B442" t="n">
-        <v>141634</v>
+        <v>172813</v>
       </c>
       <c r="C442" t="s">
         <v>2989</v>
@@ -43088,7 +43088,7 @@
         <v>44134</v>
       </c>
       <c r="B443" t="n">
-        <v>141635</v>
+        <v>172814</v>
       </c>
       <c r="C443" t="s">
         <v>2995</v>
@@ -43372,7 +43372,7 @@
         <v>44134</v>
       </c>
       <c r="B447" t="n">
-        <v>141636</v>
+        <v>172815</v>
       </c>
       <c r="C447" t="s">
         <v>3021</v>
@@ -43583,7 +43583,7 @@
         <v>44134</v>
       </c>
       <c r="B450" t="n">
-        <v>141637</v>
+        <v>172816</v>
       </c>
       <c r="C450" t="s">
         <v>3038</v>
@@ -43725,7 +43725,7 @@
         <v>44134</v>
       </c>
       <c r="B452" t="n">
-        <v>141638</v>
+        <v>172817</v>
       </c>
       <c r="C452" t="s">
         <v>3048</v>
@@ -43946,7 +43946,7 @@
         <v>44134</v>
       </c>
       <c r="B455" t="n">
-        <v>141639</v>
+        <v>172818</v>
       </c>
       <c r="C455" t="s">
         <v>3067</v>
@@ -44017,7 +44017,7 @@
         <v>44134</v>
       </c>
       <c r="B456" t="n">
-        <v>141640</v>
+        <v>172819</v>
       </c>
       <c r="C456" t="s">
         <v>3074</v>
@@ -44293,7 +44293,7 @@
         <v>44134</v>
       </c>
       <c r="B460" t="n">
-        <v>141641</v>
+        <v>172820</v>
       </c>
       <c r="C460" t="s">
         <v>3098</v>
@@ -44435,7 +44435,7 @@
         <v>44134</v>
       </c>
       <c r="B462" t="n">
-        <v>141642</v>
+        <v>172821</v>
       </c>
       <c r="C462" t="s">
         <v>3110</v>
@@ -44644,7 +44644,7 @@
         <v>44134</v>
       </c>
       <c r="B465" t="n">
-        <v>141643</v>
+        <v>172822</v>
       </c>
       <c r="C465" t="s">
         <v>3127</v>
@@ -44715,7 +44715,7 @@
         <v>44134</v>
       </c>
       <c r="B466" t="n">
-        <v>141644</v>
+        <v>172823</v>
       </c>
       <c r="C466" t="s">
         <v>3134</v>
@@ -44932,7 +44932,7 @@
         <v>44134</v>
       </c>
       <c r="B469" t="n">
-        <v>141645</v>
+        <v>172824</v>
       </c>
       <c r="C469" t="s">
         <v>3155</v>
@@ -45074,7 +45074,7 @@
         <v>44134</v>
       </c>
       <c r="B471" t="n">
-        <v>141646</v>
+        <v>172825</v>
       </c>
       <c r="C471" t="s">
         <v>3168</v>
@@ -45141,7 +45141,7 @@
         <v>44134</v>
       </c>
       <c r="B472" t="n">
-        <v>141647</v>
+        <v>172826</v>
       </c>
       <c r="C472" t="s">
         <v>3175</v>
@@ -45212,7 +45212,7 @@
         <v>44134</v>
       </c>
       <c r="B473" t="n">
-        <v>141648</v>
+        <v>172827</v>
       </c>
       <c r="C473" t="s">
         <v>3180</v>
@@ -45287,7 +45287,7 @@
         <v>44134</v>
       </c>
       <c r="B474" t="n">
-        <v>141649</v>
+        <v>172828</v>
       </c>
       <c r="C474" t="s">
         <v>3189</v>
@@ -45358,7 +45358,7 @@
         <v>44134</v>
       </c>
       <c r="B475" t="n">
-        <v>141650</v>
+        <v>172829</v>
       </c>
       <c r="C475" t="s">
         <v>3196</v>
@@ -45504,7 +45504,7 @@
         <v>44134</v>
       </c>
       <c r="B477" t="n">
-        <v>141651</v>
+        <v>172830</v>
       </c>
       <c r="C477" t="s">
         <v>3207</v>
@@ -45646,7 +45646,7 @@
         <v>44134</v>
       </c>
       <c r="B479" t="n">
-        <v>141652</v>
+        <v>172831</v>
       </c>
       <c r="C479" t="s">
         <v>3221</v>
@@ -45717,7 +45717,7 @@
         <v>44134</v>
       </c>
       <c r="B480" t="n">
-        <v>141653</v>
+        <v>172832</v>
       </c>
       <c r="C480" t="s">
         <v>3228</v>
@@ -45788,7 +45788,7 @@
         <v>44134</v>
       </c>
       <c r="B481" t="n">
-        <v>141654</v>
+        <v>172833</v>
       </c>
       <c r="C481" t="s">
         <v>3233</v>
@@ -45859,7 +45859,7 @@
         <v>44134</v>
       </c>
       <c r="B482" t="n">
-        <v>141655</v>
+        <v>172834</v>
       </c>
       <c r="C482" t="s">
         <v>3239</v>
@@ -45997,7 +45997,7 @@
         <v>44134</v>
       </c>
       <c r="B484" t="n">
-        <v>141656</v>
+        <v>172835</v>
       </c>
       <c r="C484" t="s">
         <v>3251</v>
@@ -46068,7 +46068,7 @@
         <v>44134</v>
       </c>
       <c r="B485" t="n">
-        <v>141657</v>
+        <v>172836</v>
       </c>
       <c r="C485" t="s">
         <v>3257</v>
@@ -46143,7 +46143,7 @@
         <v>44134</v>
       </c>
       <c r="B486" t="n">
-        <v>141658</v>
+        <v>172837</v>
       </c>
       <c r="C486" t="s">
         <v>3267</v>
@@ -46214,7 +46214,7 @@
         <v>44134</v>
       </c>
       <c r="B487" t="n">
-        <v>141659</v>
+        <v>172838</v>
       </c>
       <c r="C487" t="s">
         <v>3273</v>
@@ -46356,7 +46356,7 @@
         <v>44134</v>
       </c>
       <c r="B489" t="n">
-        <v>141660</v>
+        <v>172839</v>
       </c>
       <c r="C489" t="s">
         <v>3287</v>
@@ -46427,7 +46427,7 @@
         <v>44134</v>
       </c>
       <c r="B490" t="n">
-        <v>141661</v>
+        <v>172840</v>
       </c>
       <c r="C490" t="s">
         <v>3293</v>
@@ -46498,7 +46498,7 @@
         <v>44134</v>
       </c>
       <c r="B491" t="n">
-        <v>141662</v>
+        <v>172841</v>
       </c>
       <c r="C491" t="s">
         <v>3298</v>
@@ -46573,7 +46573,7 @@
         <v>44134</v>
       </c>
       <c r="B492" t="n">
-        <v>141663</v>
+        <v>172842</v>
       </c>
       <c r="C492" t="s">
         <v>3306</v>
@@ -46715,7 +46715,7 @@
         <v>44134</v>
       </c>
       <c r="B494" t="n">
-        <v>141664</v>
+        <v>172843</v>
       </c>
       <c r="C494" t="s">
         <v>3319</v>
@@ -46857,7 +46857,7 @@
         <v>44134</v>
       </c>
       <c r="B496" t="n">
-        <v>141665</v>
+        <v>172844</v>
       </c>
       <c r="C496" t="s">
         <v>3330</v>
@@ -46928,7 +46928,7 @@
         <v>44134</v>
       </c>
       <c r="B497" t="n">
-        <v>141666</v>
+        <v>172845</v>
       </c>
       <c r="C497" t="s">
         <v>3337</v>
@@ -47070,7 +47070,7 @@
         <v>44134</v>
       </c>
       <c r="B499" t="n">
-        <v>141667</v>
+        <v>172846</v>
       </c>
       <c r="C499" t="s">
         <v>3350</v>
@@ -47141,7 +47141,7 @@
         <v>44134</v>
       </c>
       <c r="B500" t="n">
-        <v>141668</v>
+        <v>172847</v>
       </c>
       <c r="C500" t="s">
         <v>3356</v>
@@ -47212,7 +47212,7 @@
         <v>44134</v>
       </c>
       <c r="B501" t="n">
-        <v>141669</v>
+        <v>172848</v>
       </c>
       <c r="C501" t="s">
         <v>3362</v>
@@ -47279,7 +47279,7 @@
         <v>44134</v>
       </c>
       <c r="B502" t="n">
-        <v>141670</v>
+        <v>172849</v>
       </c>
       <c r="C502" t="s">
         <v>3368</v>
@@ -47350,7 +47350,7 @@
         <v>44134</v>
       </c>
       <c r="B503" t="n">
-        <v>141671</v>
+        <v>172850</v>
       </c>
       <c r="C503" t="s">
         <v>3373</v>
@@ -47411,7 +47411,7 @@
         <v>44134</v>
       </c>
       <c r="B504" t="n">
-        <v>141672</v>
+        <v>172851</v>
       </c>
       <c r="C504" t="s">
         <v>3380</v>
@@ -47482,7 +47482,7 @@
         <v>44134</v>
       </c>
       <c r="B505" t="n">
-        <v>141673</v>
+        <v>172852</v>
       </c>
       <c r="C505" t="s">
         <v>3387</v>
@@ -47553,7 +47553,7 @@
         <v>44134</v>
       </c>
       <c r="B506" t="n">
-        <v>141674</v>
+        <v>172853</v>
       </c>
       <c r="C506" t="s">
         <v>3393</v>
@@ -47624,7 +47624,7 @@
         <v>44134</v>
       </c>
       <c r="B507" t="n">
-        <v>141675</v>
+        <v>172854</v>
       </c>
       <c r="C507" t="s">
         <v>3399</v>
@@ -47695,7 +47695,7 @@
         <v>44134</v>
       </c>
       <c r="B508" t="n">
-        <v>141676</v>
+        <v>172855</v>
       </c>
       <c r="C508" t="s">
         <v>3406</v>
@@ -47766,7 +47766,7 @@
         <v>44134</v>
       </c>
       <c r="B509" t="n">
-        <v>141677</v>
+        <v>172856</v>
       </c>
       <c r="C509" t="s">
         <v>3413</v>
@@ -47837,7 +47837,7 @@
         <v>44134</v>
       </c>
       <c r="B510" t="n">
-        <v>141678</v>
+        <v>172857</v>
       </c>
       <c r="C510" t="s">
         <v>3419</v>
@@ -47904,7 +47904,7 @@
         <v>44134</v>
       </c>
       <c r="B511" t="n">
-        <v>141679</v>
+        <v>172858</v>
       </c>
       <c r="C511" t="s">
         <v>3425</v>
@@ -48050,7 +48050,7 @@
         <v>44134</v>
       </c>
       <c r="B513" t="n">
-        <v>141680</v>
+        <v>172859</v>
       </c>
       <c r="C513" t="s">
         <v>3443</v>
@@ -48119,7 +48119,7 @@
         <v>44134</v>
       </c>
       <c r="B514" t="n">
-        <v>141681</v>
+        <v>172860</v>
       </c>
       <c r="C514" t="s">
         <v>3450</v>
@@ -48190,7 +48190,7 @@
         <v>44134</v>
       </c>
       <c r="B515" t="n">
-        <v>141682</v>
+        <v>172861</v>
       </c>
       <c r="C515" t="s">
         <v>3457</v>
@@ -48261,7 +48261,7 @@
         <v>44134</v>
       </c>
       <c r="B516" t="n">
-        <v>141683</v>
+        <v>172862</v>
       </c>
       <c r="C516" t="s">
         <v>3464</v>
@@ -48334,7 +48334,7 @@
         <v>44134</v>
       </c>
       <c r="B517" t="n">
-        <v>141684</v>
+        <v>172863</v>
       </c>
       <c r="C517" t="s">
         <v>3473</v>
@@ -48395,7 +48395,7 @@
         <v>44134</v>
       </c>
       <c r="B518" t="n">
-        <v>141685</v>
+        <v>172864</v>
       </c>
       <c r="C518" t="s">
         <v>3479</v>
@@ -48462,7 +48462,7 @@
         <v>44134</v>
       </c>
       <c r="B519" t="n">
-        <v>141686</v>
+        <v>172865</v>
       </c>
       <c r="C519" t="s">
         <v>3484</v>
@@ -48537,7 +48537,7 @@
         <v>44134</v>
       </c>
       <c r="B520" t="n">
-        <v>141687</v>
+        <v>172866</v>
       </c>
       <c r="C520" t="s">
         <v>3494</v>
@@ -48681,7 +48681,7 @@
         <v>44134</v>
       </c>
       <c r="B522" t="n">
-        <v>141688</v>
+        <v>172867</v>
       </c>
       <c r="C522" t="s">
         <v>3510</v>
@@ -48748,7 +48748,7 @@
         <v>44134</v>
       </c>
       <c r="B523" t="n">
-        <v>141689</v>
+        <v>172868</v>
       </c>
       <c r="C523" t="s">
         <v>3516</v>
@@ -48819,7 +48819,7 @@
         <v>44134</v>
       </c>
       <c r="B524" t="n">
-        <v>141690</v>
+        <v>172869</v>
       </c>
       <c r="C524" t="s">
         <v>3522</v>
@@ -48890,7 +48890,7 @@
         <v>44134</v>
       </c>
       <c r="B525" t="n">
-        <v>141691</v>
+        <v>172870</v>
       </c>
       <c r="C525" t="s">
         <v>3529</v>
@@ -48961,7 +48961,7 @@
         <v>44134</v>
       </c>
       <c r="B526" t="n">
-        <v>141692</v>
+        <v>172871</v>
       </c>
       <c r="C526" t="s">
         <v>3536</v>
@@ -49032,7 +49032,7 @@
         <v>44134</v>
       </c>
       <c r="B527" t="n">
-        <v>141693</v>
+        <v>172872</v>
       </c>
       <c r="C527" t="s">
         <v>3542</v>
@@ -49103,7 +49103,7 @@
         <v>44134</v>
       </c>
       <c r="B528" t="n">
-        <v>141694</v>
+        <v>172873</v>
       </c>
       <c r="C528" t="s">
         <v>3550</v>
@@ -49241,7 +49241,7 @@
         <v>44134</v>
       </c>
       <c r="B530" t="n">
-        <v>141695</v>
+        <v>172874</v>
       </c>
       <c r="C530" t="s">
         <v>3561</v>
@@ -49312,7 +49312,7 @@
         <v>44134</v>
       </c>
       <c r="B531" t="n">
-        <v>141696</v>
+        <v>172875</v>
       </c>
       <c r="C531" t="s">
         <v>3570</v>
@@ -49387,7 +49387,7 @@
         <v>44134</v>
       </c>
       <c r="B532" t="n">
-        <v>141697</v>
+        <v>172876</v>
       </c>
       <c r="C532" t="s">
         <v>3580</v>
@@ -49458,7 +49458,7 @@
         <v>44134</v>
       </c>
       <c r="B533" t="n">
-        <v>141698</v>
+        <v>172877</v>
       </c>
       <c r="C533" t="s">
         <v>3589</v>
@@ -49533,7 +49533,7 @@
         <v>44134</v>
       </c>
       <c r="B534" t="n">
-        <v>141699</v>
+        <v>172878</v>
       </c>
       <c r="C534" t="s">
         <v>3599</v>
@@ -49608,7 +49608,7 @@
         <v>44134</v>
       </c>
       <c r="B535" t="n">
-        <v>141700</v>
+        <v>172879</v>
       </c>
       <c r="C535" t="s">
         <v>3608</v>
@@ -49750,7 +49750,7 @@
         <v>44134</v>
       </c>
       <c r="B537" t="n">
-        <v>141701</v>
+        <v>172880</v>
       </c>
       <c r="C537" t="s">
         <v>3622</v>
@@ -49884,7 +49884,7 @@
         <v>44134</v>
       </c>
       <c r="B539" t="n">
-        <v>141702</v>
+        <v>172881</v>
       </c>
       <c r="C539" t="s">
         <v>3636</v>
@@ -49955,7 +49955,7 @@
         <v>44134</v>
       </c>
       <c r="B540" t="n">
-        <v>141703</v>
+        <v>172882</v>
       </c>
       <c r="C540" t="s">
         <v>3646</v>
@@ -50089,7 +50089,7 @@
         <v>44134</v>
       </c>
       <c r="B542" t="n">
-        <v>141704</v>
+        <v>172883</v>
       </c>
       <c r="C542" t="s">
         <v>3660</v>
@@ -50156,7 +50156,7 @@
         <v>44134</v>
       </c>
       <c r="B543" t="n">
-        <v>141705</v>
+        <v>172884</v>
       </c>
       <c r="C543" t="s">
         <v>3667</v>
@@ -50227,7 +50227,7 @@
         <v>44134</v>
       </c>
       <c r="B544" t="n">
-        <v>141706</v>
+        <v>172885</v>
       </c>
       <c r="C544" t="s">
         <v>3675</v>
@@ -50298,7 +50298,7 @@
         <v>44134</v>
       </c>
       <c r="B545" t="n">
-        <v>141707</v>
+        <v>172886</v>
       </c>
       <c r="C545" t="s">
         <v>3681</v>
@@ -50369,7 +50369,7 @@
         <v>44134</v>
       </c>
       <c r="B546" t="n">
-        <v>141708</v>
+        <v>172887</v>
       </c>
       <c r="C546" t="s">
         <v>3689</v>
@@ -50582,7 +50582,7 @@
         <v>44134</v>
       </c>
       <c r="B549" t="n">
-        <v>141709</v>
+        <v>172888</v>
       </c>
       <c r="C549" t="s">
         <v>3710</v>
@@ -50653,7 +50653,7 @@
         <v>44134</v>
       </c>
       <c r="B550" t="n">
-        <v>141710</v>
+        <v>172889</v>
       </c>
       <c r="C550" t="s">
         <v>3716</v>
@@ -50724,7 +50724,7 @@
         <v>44134</v>
       </c>
       <c r="B551" t="n">
-        <v>141711</v>
+        <v>172890</v>
       </c>
       <c r="C551" t="s">
         <v>3723</v>
@@ -50795,7 +50795,7 @@
         <v>44134</v>
       </c>
       <c r="B552" t="n">
-        <v>141712</v>
+        <v>172891</v>
       </c>
       <c r="C552" t="s">
         <v>3730</v>
@@ -50866,7 +50866,7 @@
         <v>44134</v>
       </c>
       <c r="B553" t="n">
-        <v>141713</v>
+        <v>172892</v>
       </c>
       <c r="C553" t="s">
         <v>3738</v>
@@ -50937,7 +50937,7 @@
         <v>44134</v>
       </c>
       <c r="B554" t="n">
-        <v>141714</v>
+        <v>172893</v>
       </c>
       <c r="C554" t="s">
         <v>3746</v>
@@ -51008,7 +51008,7 @@
         <v>44134</v>
       </c>
       <c r="B555" t="n">
-        <v>141715</v>
+        <v>172894</v>
       </c>
       <c r="C555" t="s">
         <v>3753</v>
@@ -51079,7 +51079,7 @@
         <v>44134</v>
       </c>
       <c r="B556" t="n">
-        <v>141716</v>
+        <v>172895</v>
       </c>
       <c r="C556" t="s">
         <v>3760</v>
@@ -51148,7 +51148,7 @@
         <v>44134</v>
       </c>
       <c r="B557" t="n">
-        <v>141717</v>
+        <v>172896</v>
       </c>
       <c r="C557" t="s">
         <v>3766</v>
@@ -51217,7 +51217,7 @@
         <v>44134</v>
       </c>
       <c r="B558" t="n">
-        <v>141718</v>
+        <v>172897</v>
       </c>
       <c r="C558" t="s">
         <v>3774</v>
@@ -51430,7 +51430,7 @@
         <v>44134</v>
       </c>
       <c r="B561" t="n">
-        <v>141719</v>
+        <v>172898</v>
       </c>
       <c r="C561" t="s">
         <v>3797</v>
@@ -51499,7 +51499,7 @@
         <v>44134</v>
       </c>
       <c r="B562" t="n">
-        <v>141720</v>
+        <v>172899</v>
       </c>
       <c r="C562" t="s">
         <v>3804</v>
@@ -51566,7 +51566,7 @@
         <v>44134</v>
       </c>
       <c r="B563" t="n">
-        <v>141721</v>
+        <v>172900</v>
       </c>
       <c r="C563" t="s">
         <v>3810</v>
@@ -51633,7 +51633,7 @@
         <v>44134</v>
       </c>
       <c r="B564" t="n">
-        <v>141722</v>
+        <v>172901</v>
       </c>
       <c r="C564" t="s">
         <v>3817</v>
@@ -51704,7 +51704,7 @@
         <v>44134</v>
       </c>
       <c r="B565" t="n">
-        <v>141723</v>
+        <v>172902</v>
       </c>
       <c r="C565" t="s">
         <v>3825</v>
@@ -51765,7 +51765,7 @@
         <v>44134</v>
       </c>
       <c r="B566" t="n">
-        <v>141724</v>
+        <v>172903</v>
       </c>
       <c r="C566" t="s">
         <v>3832</v>
@@ -51836,7 +51836,7 @@
         <v>44134</v>
       </c>
       <c r="B567" t="n">
-        <v>141725</v>
+        <v>172904</v>
       </c>
       <c r="C567" t="s">
         <v>3840</v>
@@ -51907,7 +51907,7 @@
         <v>44134</v>
       </c>
       <c r="B568" t="n">
-        <v>141726</v>
+        <v>172905</v>
       </c>
       <c r="C568" t="s">
         <v>3846</v>
@@ -51978,7 +51978,7 @@
         <v>44134</v>
       </c>
       <c r="B569" t="n">
-        <v>141727</v>
+        <v>172906</v>
       </c>
       <c r="C569" t="s">
         <v>3852</v>
@@ -52179,7 +52179,7 @@
         <v>44134</v>
       </c>
       <c r="B572" t="n">
-        <v>141728</v>
+        <v>172907</v>
       </c>
       <c r="C572" t="s">
         <v>3870</v>
@@ -52244,7 +52244,7 @@
         <v>44134</v>
       </c>
       <c r="B573" t="n">
-        <v>141729</v>
+        <v>172908</v>
       </c>
       <c r="C573" t="s">
         <v>3877</v>
@@ -52313,7 +52313,7 @@
         <v>44134</v>
       </c>
       <c r="B574" t="n">
-        <v>141730</v>
+        <v>172909</v>
       </c>
       <c r="C574" t="s">
         <v>3885</v>
